--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Session 1 2021\Fundamentals of Program\Local snake game\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2189BB30-379D-477B-846D-68330CE0FB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Week 9</t>
   </si>
@@ -127,9 +121,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Your name and student ID</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -170,13 +161,19 @@
   </si>
   <si>
     <t>Crushing/losing logic</t>
+  </si>
+  <si>
+    <t>Murugu Zachary Murithi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xu6MUyxKFWo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +202,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,14 +338,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -450,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -644,14 +653,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -672,40 +681,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="36"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +868,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1028,10 +1037,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1041,11 +1050,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1106,7 +1115,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1117,13 +1126,13 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1143,6 +1152,9 @@
       <c r="F25" s="14">
         <v>0</v>
       </c>
+      <c r="J25" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1158,8 +1170,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B32" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>